--- a/scores des modèles.xlsx
+++ b/scores des modèles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\OpenClassrooms\Projets\03 - Anticipez les besoins en consommation de bâtiments\Projet 03 - Fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE38D74B-DAFC-463F-AE26-7E995FEA7E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4921762-B088-4B83-91CF-C374584A9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,6 +743,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,27 +771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1110,13 +1112,13 @@
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
@@ -1154,10 +1156,10 @@
     </row>
     <row r="4" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1203,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1229,16 +1231,16 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="K5" s="19">
-        <v>0.71299999999999997</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="L5" s="20">
-        <v>0.71</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="M5" s="6">
         <v>0.74</v>
       </c>
       <c r="N5" s="1">
-        <v>0.57199999999999995</v>
+        <v>0.624</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -1250,7 +1252,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
@@ -1276,16 +1278,16 @@
         <v>206900000000000</v>
       </c>
       <c r="K6" s="21">
-        <v>52050000000000</v>
+        <v>55810000000000</v>
       </c>
       <c r="L6" s="22">
-        <v>52590000000000</v>
+        <v>51940000000000</v>
       </c>
       <c r="M6" s="7">
         <v>47280000000000</v>
       </c>
       <c r="N6" s="2">
-        <v>77650000000000</v>
+        <v>68320000000000</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -1297,7 +1299,7 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
-      <c r="B7" s="37"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1323,16 +1325,16 @@
         <v>6340000</v>
       </c>
       <c r="K7" s="23">
-        <v>3486000</v>
+        <v>3437000</v>
       </c>
       <c r="L7" s="24">
-        <v>3324000</v>
+        <v>3299000</v>
       </c>
       <c r="M7" s="8">
         <v>3353000</v>
       </c>
       <c r="N7" s="3">
-        <v>3679000</v>
+        <v>3347000</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -1344,7 +1346,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1372,16 +1374,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K8" s="25">
-        <v>0.498</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="L8" s="26">
-        <v>0.56799999999999995</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="M8" s="9">
         <v>0.63600000000000001</v>
       </c>
       <c r="N8" s="4">
-        <v>0.63800000000000001</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
@@ -1393,7 +1395,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
-      <c r="B9" s="36"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1419,16 +1421,16 @@
         <v>68580</v>
       </c>
       <c r="K9" s="21">
-        <v>47800</v>
+        <v>50120</v>
       </c>
       <c r="L9" s="22">
-        <v>41140</v>
+        <v>40300</v>
       </c>
       <c r="M9" s="7">
         <v>34700</v>
       </c>
       <c r="N9" s="2">
-        <v>34470</v>
+        <v>37220</v>
       </c>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
@@ -1440,7 +1442,7 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="16" t="s">
         <v>4</v>
       </c>
@@ -1466,16 +1468,16 @@
         <v>101.9</v>
       </c>
       <c r="K10" s="27">
-        <v>100.1</v>
+        <v>102.4</v>
       </c>
       <c r="L10" s="28">
-        <v>95.58</v>
+        <v>113.6</v>
       </c>
       <c r="M10" s="10">
         <v>89.49</v>
       </c>
       <c r="N10" s="5">
-        <v>90.61</v>
+        <v>92.7</v>
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="29"/>
@@ -1537,13 +1539,13 @@
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
@@ -1581,10 +1583,10 @@
     </row>
     <row r="15" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="17" t="s">
         <v>2</v>
       </c>
@@ -1628,7 +1630,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -1677,7 +1679,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="13" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1726,7 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
-      <c r="B18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1773,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1820,7 +1822,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="36"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="13" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1869,7 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="16" t="s">
         <v>4</v>
       </c>
@@ -1964,13 +1966,13 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -2008,10 +2010,10 @@
     </row>
     <row r="26" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="17" t="s">
         <v>2</v>
       </c>
@@ -2055,7 +2057,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -2104,7 +2106,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="13" t="s">
         <v>3</v>
       </c>
@@ -2151,7 +2153,7 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="37"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="14" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2200,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -2247,7 +2249,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="36"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="13" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2296,7 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="39"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="16" t="s">
         <v>4</v>
       </c>
@@ -2610,6 +2612,78 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D16:N16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:N17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:N18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:N19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:N20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:N21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D27:N27">
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -2682,78 +2756,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:N16">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:N17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:N18">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:N19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:N20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:N21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>

--- a/scores des modèles.xlsx
+++ b/scores des modèles.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\OpenClassrooms\Projets\03 - Anticipez les besoins en consommation de bâtiments\Projet 03 - Fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4921762-B088-4B83-91CF-C374584A9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C7FFD-91A2-4D98-B972-97EE1963376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="33">
   <si>
     <t>Modèle</t>
   </si>
@@ -86,15 +95,59 @@
   <si>
     <t xml:space="preserve">Sans ENERGYSTARScore, avec proportions gaz/élec/vap : </t>
   </si>
+  <si>
+    <t>SiteEnergyUse(kBtu)</t>
+  </si>
+  <si>
+    <t>SiteEnergyUseWN(kBtu)</t>
+  </si>
+  <si>
+    <t>Time fit</t>
+  </si>
+  <si>
+    <t>Time pred</t>
+  </si>
+  <si>
+    <t>R² (moyen)</t>
+  </si>
+  <si>
+    <t>RMSE (test)</t>
+  </si>
+  <si>
+    <t>MAE (test)</t>
+  </si>
+  <si>
+    <t>R² (test)</t>
+  </si>
+  <si>
+    <t>SiteEnergyUse
+Sans ENERGYSTARScore</t>
+  </si>
+  <si>
+    <t>SiteEnergyUse
+Avec ENERGYSTARScore</t>
+  </si>
+  <si>
+    <t>TotalGHGEmissions
+Sans proportions gaz/élec/vap</t>
+  </si>
+  <si>
+    <t>TotalGHGEmissions
+Avec proportions gaz/élec/vap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLD : </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +179,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +207,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -660,11 +733,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +930,168 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,17 +1380,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
@@ -1083,79 +1404,18 @@
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="37" t="s">
-        <v>18</v>
+    <row r="1" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" s="29" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-    </row>
-    <row r="4" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+    </row>
+    <row r="3" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
@@ -1193,1566 +1453,3308 @@
       <c r="N4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32" t="s">
+    </row>
+    <row r="5" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="19">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.498</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.498</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.216</v>
+      </c>
+      <c r="J5" s="19">
+        <v>-0.121</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="19">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41"/>
+      <c r="C7" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="21">
+        <v>5930000</v>
+      </c>
+      <c r="L7" s="22">
+        <v>5008000</v>
+      </c>
+      <c r="M7" s="7">
+        <v>6317000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5189412</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="23">
+        <v>3284000</v>
+      </c>
+      <c r="L8" s="24">
+        <v>2702000</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3359000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2706000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="50">
+        <v>1990</v>
+      </c>
+      <c r="L9" s="51">
+        <v>495</v>
+      </c>
+      <c r="M9" s="52">
+        <v>246</v>
+      </c>
+      <c r="N9" s="82">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="42"/>
+      <c r="C10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="53">
+        <v>14</v>
+      </c>
+      <c r="L10" s="54">
+        <v>1</v>
+      </c>
+      <c r="M10" s="55">
+        <v>1</v>
+      </c>
+      <c r="N10" s="83">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="19">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="19">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="21">
+        <v>8047000</v>
+      </c>
+      <c r="L13" s="22">
+        <v>8001000</v>
+      </c>
+      <c r="M13" s="7">
+        <v>7861000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>7949213.7976028798</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="23">
+        <v>3976000</v>
+      </c>
+      <c r="L14" s="24">
+        <v>3573000</v>
+      </c>
+      <c r="M14" s="8">
+        <v>3931000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3489000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="50">
+        <v>1860</v>
+      </c>
+      <c r="L15" s="51">
+        <v>511</v>
+      </c>
+      <c r="M15" s="52">
+        <v>150</v>
+      </c>
+      <c r="N15" s="82">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="53">
+        <v>12</v>
+      </c>
+      <c r="L16" s="54">
+        <v>1</v>
+      </c>
+      <c r="M16" s="55">
+        <v>2</v>
+      </c>
+      <c r="N16" s="83">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:14" s="29" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="L21" s="20">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+      <c r="C22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="19">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41"/>
+      <c r="C23" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="21">
+        <v>5515000</v>
+      </c>
+      <c r="L23" s="22">
+        <v>6017000</v>
+      </c>
+      <c r="M23" s="7">
+        <v>5381000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>6354525.9000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="23">
+        <v>2590000</v>
+      </c>
+      <c r="L24" s="24">
+        <v>2809000</v>
+      </c>
+      <c r="M24" s="8">
+        <v>2686000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2888000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="50">
+        <v>1040</v>
+      </c>
+      <c r="L25" s="51">
+        <v>342</v>
+      </c>
+      <c r="M25" s="52">
+        <v>144</v>
+      </c>
+      <c r="N25" s="82">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="42"/>
+      <c r="C26" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="53">
+        <v>9</v>
+      </c>
+      <c r="L26" s="54">
+        <v>0</v>
+      </c>
+      <c r="M26" s="55">
+        <v>1</v>
+      </c>
+      <c r="N26" s="83">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="19">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="L27" s="20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="19">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L28" s="20">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="C29" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="21">
+        <v>5132000</v>
+      </c>
+      <c r="L29" s="22">
+        <v>5128000</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4804000</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5812056</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="23">
+        <v>2453000</v>
+      </c>
+      <c r="L30" s="24">
+        <v>2382000</v>
+      </c>
+      <c r="M30" s="8">
+        <v>2481000</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2667000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="50">
+        <v>1030</v>
+      </c>
+      <c r="L31" s="51">
+        <v>326</v>
+      </c>
+      <c r="M31" s="52">
+        <v>158</v>
+      </c>
+      <c r="N31" s="82">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="53">
+        <v>9</v>
+      </c>
+      <c r="L32" s="54">
+        <v>0</v>
+      </c>
+      <c r="M32" s="55">
+        <v>1</v>
+      </c>
+      <c r="N32" s="83">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:14" s="29" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+    </row>
+    <row r="35" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="19">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0.245</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="J37" s="19">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="K37" s="19">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="L37" s="20">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="63"/>
+      <c r="C38" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="19">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="L38" s="20">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="74">
+        <v>218.8</v>
+      </c>
+      <c r="L39" s="75">
+        <v>237.6</v>
+      </c>
+      <c r="M39" s="76">
+        <v>222.3</v>
+      </c>
+      <c r="N39" s="77">
+        <v>213.77557999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="66"/>
+      <c r="C40" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="78">
+        <v>101.8</v>
+      </c>
+      <c r="L40" s="79">
+        <v>111.6</v>
+      </c>
+      <c r="M40" s="80">
+        <v>104.2</v>
+      </c>
+      <c r="N40" s="81">
+        <v>96.49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="66"/>
+      <c r="C41" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="50">
+        <v>2230</v>
+      </c>
+      <c r="L41" s="51">
+        <v>500</v>
+      </c>
+      <c r="M41" s="52">
+        <v>199</v>
+      </c>
+      <c r="N41" s="82">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="68"/>
+      <c r="C42" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="53">
+        <v>14</v>
+      </c>
+      <c r="L42" s="54">
+        <v>1</v>
+      </c>
+      <c r="M42" s="55">
+        <v>2</v>
+      </c>
+      <c r="N42" s="83">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:14" s="29" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="19">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L47" s="20">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="63"/>
+      <c r="C48" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="19">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="L48" s="20">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="64"/>
+      <c r="C49" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="74">
+        <v>203.2</v>
+      </c>
+      <c r="L49" s="75">
+        <v>198</v>
+      </c>
+      <c r="M49" s="76">
+        <v>191.8</v>
+      </c>
+      <c r="N49" s="77">
+        <v>169.14490799999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="66"/>
+      <c r="C50" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="78">
+        <v>79.53</v>
+      </c>
+      <c r="L50" s="79">
+        <v>71.67</v>
+      </c>
+      <c r="M50" s="80">
+        <v>73.72</v>
+      </c>
+      <c r="N50" s="81">
+        <v>62.79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="66"/>
+      <c r="C51" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="50">
+        <v>1920</v>
+      </c>
+      <c r="L51" s="51">
+        <v>564</v>
+      </c>
+      <c r="M51" s="52">
+        <v>223</v>
+      </c>
+      <c r="N51" s="84">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="68"/>
+      <c r="C52" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="53">
+        <v>11</v>
+      </c>
+      <c r="L52" s="54">
+        <v>1</v>
+      </c>
+      <c r="M52" s="55">
+        <v>2</v>
+      </c>
+      <c r="N52" s="83">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="93"/>
+      <c r="J78" s="93"/>
+      <c r="K78" s="93"/>
+    </row>
+    <row r="79" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="93"/>
+      <c r="I79" s="93"/>
+      <c r="J79" s="93"/>
+      <c r="K79" s="93"/>
+    </row>
+    <row r="80" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
+    </row>
+    <row r="81" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="93"/>
+    </row>
+    <row r="82" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
+      <c r="I82" s="93"/>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+    </row>
+    <row r="83" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+    </row>
+    <row r="87" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+    </row>
+    <row r="89" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="29"/>
+      <c r="B89" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="31"/>
+      <c r="D89" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L89" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D90" s="19">
         <v>-1E-3</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E90" s="19">
         <v>0.56100000000000005</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F90" s="19">
         <v>0.58799999999999997</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G90" s="19">
         <v>0.63500000000000001</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H90" s="19">
         <v>0.61799999999999999</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I90" s="19">
         <v>0.624</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J90" s="19">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K90" s="19">
         <v>0.69299999999999995</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L90" s="20">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M90" s="6">
         <v>0.74</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N90" s="1">
         <v>0.624</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="13" t="s">
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D91" s="21">
         <v>181800000000000</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E91" s="21">
         <v>79640000000000</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F91" s="21">
         <v>74800000000000</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G91" s="21">
         <v>66320000000000</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H91" s="21">
         <v>69370000000000</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I91" s="21">
         <v>68320000000000</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J91" s="21">
         <v>206900000000000</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K91" s="21">
         <v>55810000000000</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L91" s="22">
         <v>51940000000000</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M91" s="7">
         <v>47280000000000</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N91" s="2">
         <v>68320000000000</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="14" t="s">
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="29"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D92" s="23">
         <v>7580000</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E92" s="23">
         <v>4607000</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F92" s="23">
         <v>4127000</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G92" s="23">
         <v>4059000</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H92" s="23">
         <v>3749000</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I92" s="23">
         <v>4065000</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J92" s="23">
         <v>6340000</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K92" s="23">
         <v>3437000</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L92" s="24">
         <v>3299000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M92" s="8">
         <v>3353000</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N92" s="3">
         <v>3347000</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="35" t="s">
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D93" s="25">
         <v>-1E-3</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E93" s="25">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F93" s="25">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G93" s="25">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H93" s="25">
         <v>0.39</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I93" s="25">
         <v>0.495</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J93" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K93" s="25">
         <v>0.47399999999999998</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L93" s="26">
         <v>0.57699999999999996</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M93" s="9">
         <v>0.63600000000000001</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N93" s="4">
         <v>0.60899999999999999</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="13" t="s">
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="29"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D94" s="21">
         <v>95330</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E94" s="21">
         <v>68950</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F94" s="21">
         <v>64870</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G94" s="21">
         <v>52580</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H94" s="21">
         <v>58150</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I94" s="21">
         <v>48150</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J94" s="21">
         <v>68580</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K94" s="21">
         <v>50120</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L94" s="22">
         <v>40300</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M94" s="7">
         <v>34700</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N94" s="2">
         <v>37220</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="16" t="s">
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="29"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D95" s="27">
         <v>161.30000000000001</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E95" s="27">
         <v>144.80000000000001</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F95" s="27">
         <v>130.80000000000001</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G95" s="27">
         <v>124.5</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H95" s="27">
         <v>110.2</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I95" s="27">
         <v>110.2</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J95" s="27">
         <v>101.9</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K95" s="27">
         <v>102.4</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L95" s="28">
         <v>113.6</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M95" s="10">
         <v>89.49</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N95" s="5">
         <v>92.7</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-    </row>
-    <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="37" t="s">
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+    </row>
+    <row r="98" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30" t="s">
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+    </row>
+    <row r="100" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="29"/>
+      <c r="B100" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="17" t="s">
+      <c r="C100" s="31"/>
+      <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E100" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F100" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G100" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I100" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J100" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K100" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L100" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M100" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N100" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32" t="s">
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="29"/>
+      <c r="B101" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C101" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D101" s="19">
         <v>-1E-3</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E101" s="19">
         <v>0.56699999999999995</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F101" s="19">
         <v>0.59199999999999997</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G101" s="19">
         <v>0.64500000000000002</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H101" s="19">
         <v>0.61699999999999999</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I101" s="19">
         <v>0.57699999999999996</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J101" s="19">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K101" s="19">
         <v>0.71299999999999997</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L101" s="20">
         <v>0.71699999999999997</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M101" s="6">
         <v>0.69899999999999995</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N101" s="1">
         <v>0.69199999999999995</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="13" t="s">
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="29"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D102" s="21">
         <v>181800000000000</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E102" s="21">
         <v>78610000000000</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F102" s="21">
         <v>74160000000000</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G102" s="21">
         <v>64480000000000</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H102" s="21">
         <v>69580000000000</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I102" s="21">
         <v>76810000000000</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J102" s="21">
         <v>206900000000000</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K102" s="21">
         <v>52100000000000</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L102" s="22">
         <v>51440000000000</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M102" s="7">
         <v>54570000000000</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N102" s="2">
         <v>56010000000000</v>
       </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="14" t="s">
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="29"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="29"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D103" s="23">
         <v>7580000</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E103" s="23">
         <v>4584000</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F103" s="23">
         <v>4134000</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G103" s="23">
         <v>4080000</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H103" s="23">
         <v>3843000</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I103" s="23">
         <v>4118000</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J103" s="23">
         <v>6340000</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K103" s="23">
         <v>3437000</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L103" s="24">
         <v>3342000</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M103" s="8">
         <v>3447000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N103" s="3">
         <v>3349000</v>
       </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="35" t="s">
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C104" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D104" s="25">
         <v>-1E-3</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E104" s="25">
         <v>0.36899999999999999</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F104" s="25">
         <v>0.40699999999999997</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G104" s="25">
         <v>0.68700000000000006</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H104" s="25">
         <v>0.45400000000000001</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I104" s="25">
         <v>0.503</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J104" s="25">
         <v>0.34899999999999998</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K104" s="25">
         <v>0.69799999999999995</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L104" s="26">
         <v>0.70199999999999996</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M104" s="9">
         <v>0.56200000000000006</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N104" s="4">
         <v>0.77</v>
       </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="13" t="s">
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="29"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D105" s="21">
         <v>95330</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E105" s="21">
         <v>60120</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F105" s="21">
         <v>56550</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G105" s="21">
         <v>29830</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H105" s="21">
         <v>52040</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I105" s="21">
         <v>47400</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J105" s="21">
         <v>62000</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K105" s="21">
         <v>28820</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L105" s="22">
         <v>28380</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M105" s="7">
         <v>41720</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N105" s="2">
         <v>21960</v>
       </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="16" t="s">
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="29"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D106" s="27">
         <v>161.30000000000001</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E106" s="27">
         <v>133.6</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F106" s="27">
         <v>119.2</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G106" s="27">
         <v>91.52</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H106" s="27">
         <v>104.8</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I106" s="27">
         <v>94.32</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J106" s="27">
         <v>91.05</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K106" s="27">
         <v>79.62</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L106" s="28">
         <v>69.78</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M106" s="10">
         <v>85.16</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N106" s="5">
         <v>67.790000000000006</v>
       </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-    </row>
-    <row r="24" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="37" t="s">
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+    </row>
+    <row r="109" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30" t="s">
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+    </row>
+    <row r="111" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="29"/>
+      <c r="B111" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="17" t="s">
+      <c r="C111" s="31"/>
+      <c r="D111" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E111" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F111" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G111" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I111" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J111" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K111" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L111" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M111" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="N111" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32" t="s">
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="29"/>
+      <c r="B112" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C112" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D112" s="19">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E112" s="19">
         <v>0.69</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F112" s="19">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G112" s="19">
         <v>0.80700000000000005</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H112" s="19">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I112" s="19">
         <v>0.56399999999999995</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J112" s="19">
         <v>0.752</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K112" s="19">
         <v>0.85499999999999998</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L112" s="20">
         <v>0.88900000000000001</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M112" s="6">
         <v>0.877</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N112" s="1">
         <v>0.85199999999999998</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="13" t="s">
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="29"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D113" s="21">
         <v>130400000000000</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E113" s="21">
         <v>40250000000000</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F113" s="21">
         <v>37080000000000</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G113" s="21">
         <v>25000000000000</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H113" s="21">
         <v>29610000000000</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I113" s="21">
         <v>56520000000000</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J113" s="21">
         <v>32170000000000</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K113" s="21">
         <v>18860000000000</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L113" s="22">
         <v>14390000000000</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M113" s="7">
         <v>16000000000000</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N113" s="2">
         <v>19220000000000</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="14" t="s">
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="29"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D114" s="23">
         <v>7080000</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E114" s="23">
         <v>4008000</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F114" s="23">
         <v>3703000</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G114" s="23">
         <v>3085000</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H114" s="23">
         <v>2966000</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I114" s="23">
         <v>3495000</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J114" s="23">
         <v>2688000</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K114" s="23">
         <v>1891000</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L114" s="24">
         <v>1726000</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M114" s="8">
         <v>1824000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N114" s="3">
         <v>2027000</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="35" t="s">
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
+      <c r="R114" s="29"/>
+      <c r="S114" s="29"/>
+      <c r="T114" s="29"/>
+      <c r="U114" s="29"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="29"/>
+      <c r="B115" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C115" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D115" s="25">
         <v>0</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E115" s="25">
         <v>0.27300000000000002</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F115" s="25">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G115" s="25">
         <v>0.496</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H115" s="25">
         <v>0.375</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I115" s="25">
         <v>0.35099999999999998</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J115" s="25">
         <v>0.18</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K115" s="25">
         <v>0.55500000000000005</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L115" s="26">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M115" s="9">
         <v>0.27500000000000002</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N115" s="4">
         <v>0.64100000000000001</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="13" t="s">
+      <c r="O115" s="29"/>
+      <c r="P115" s="29"/>
+      <c r="Q115" s="29"/>
+      <c r="R115" s="29"/>
+      <c r="S115" s="29"/>
+      <c r="T115" s="29"/>
+      <c r="U115" s="29"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D116" s="21">
         <v>110900</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E116" s="21">
         <v>80610</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F116" s="21">
         <v>75490</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G116" s="21">
         <v>55850</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H116" s="21">
         <v>69340</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I116" s="21">
         <v>72000</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J116" s="21">
         <v>90990</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K116" s="21">
         <v>49390</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L116" s="22">
         <v>47710</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M116" s="7">
         <v>80370</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N116" s="2">
         <v>39860</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="16" t="s">
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+      <c r="R116" s="29"/>
+      <c r="S116" s="29"/>
+      <c r="T116" s="29"/>
+      <c r="U116" s="29"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="29"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D117" s="27">
         <v>161.9</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E117" s="27">
         <v>153.30000000000001</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F117" s="27">
         <v>141.30000000000001</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G117" s="27">
         <v>106.6</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H117" s="27">
         <v>119.8</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I117" s="27">
         <v>105.6</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J117" s="27">
         <v>103.8</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K117" s="27">
         <v>85.27</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L117" s="28">
         <v>104.4</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M117" s="10">
         <v>94.75</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N117" s="5">
         <v>81.209999999999994</v>
       </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29"/>
+      <c r="R117" s="29"/>
+      <c r="S117" s="29"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="29"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="29"/>
+      <c r="R118" s="29"/>
+      <c r="S118" s="29"/>
+      <c r="T118" s="29"/>
+      <c r="U118" s="29"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="29"/>
+      <c r="Q119" s="29"/>
+      <c r="R119" s="29"/>
+      <c r="S119" s="29"/>
+      <c r="T119" s="29"/>
+      <c r="U119" s="29"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="29"/>
+      <c r="R120" s="29"/>
+      <c r="S120" s="29"/>
+      <c r="T120" s="29"/>
+      <c r="U120" s="29"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="29"/>
+      <c r="P121" s="29"/>
+      <c r="Q121" s="29"/>
+      <c r="R121" s="29"/>
+      <c r="S121" s="29"/>
+      <c r="T121" s="29"/>
+      <c r="U121" s="29"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="29"/>
+      <c r="Q122" s="29"/>
+      <c r="R122" s="29"/>
+      <c r="S122" s="29"/>
+      <c r="T122" s="29"/>
+      <c r="U122" s="29"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="29"/>
+      <c r="P123" s="29"/>
+      <c r="Q123" s="29"/>
+      <c r="R123" s="29"/>
+      <c r="S123" s="29"/>
+      <c r="T123" s="29"/>
+      <c r="U123" s="29"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="29"/>
+      <c r="R124" s="29"/>
+      <c r="S124" s="29"/>
+      <c r="T124" s="29"/>
+      <c r="U124" s="29"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="29"/>
+      <c r="R125" s="29"/>
+      <c r="S125" s="29"/>
+      <c r="T125" s="29"/>
+      <c r="U125" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="F24:J24"/>
+  <mergeCells count="27">
+    <mergeCell ref="F78:K82"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
   </mergeCells>
+  <conditionalFormatting sqref="D90:N90">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:N91">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:N92">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93:N93">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94:N94">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95:N95">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101:N101">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102:N102">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103:N103">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104:N104">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105:N105">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106:N106">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112:N112">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113:N113">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114:N114">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115:N115">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116:N116">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117:N117">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:N47">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:N48">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:N49">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:N50">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:N51">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:N52">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:N37">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:N38">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:N39">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:N40">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:N41">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:N42">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:N5">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:N6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:N7">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:N8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:N9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:N10">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:N11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:N12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:N13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:N14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:N15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:N16">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:N21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:N22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:N23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:N24">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:N25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:N26">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:N27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:N28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:N29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:N30">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:N31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:N32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:N37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D5:N5">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:N6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:N7">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:N8">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:N9">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:N10">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:N16">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:N17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:N18">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:N19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:N20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:N21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:N27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:N28">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:N29">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:N30">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:N31">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:N32">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/scores des modèles.xlsx
+++ b/scores des modèles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\OpenClassrooms\Projets\03 - Anticipez les besoins en consommation de bâtiments\Projet 03 - Fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C7FFD-91A2-4D98-B972-97EE1963376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099670EC-234E-490C-B3A4-48CE708FC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,45 +902,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,148 +911,187 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,20 +1406,20 @@
   <sheetData>
     <row r="1" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="29" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1455,10 +1455,10 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="19">
@@ -1496,17 +1496,17 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="19">
         <v>0.65800000000000003</v>
       </c>
@@ -1521,17 +1521,17 @@
       </c>
     </row>
     <row r="7" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="21">
         <v>5930000</v>
       </c>
@@ -1546,17 +1546,17 @@
       </c>
     </row>
     <row r="8" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="23">
         <v>3284000</v>
       </c>
@@ -1571,69 +1571,69 @@
       </c>
     </row>
     <row r="9" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="50">
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="34">
         <v>1990</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="35">
         <v>495</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="36">
         <v>246</v>
       </c>
-      <c r="N9" s="82">
+      <c r="N9" s="56">
         <v>861</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="53">
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="37">
         <v>14</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="38">
         <v>1</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="39">
         <v>1</v>
       </c>
-      <c r="N10" s="83">
+      <c r="N10" s="57">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="19">
         <v>0.61499999999999999</v>
       </c>
@@ -1648,17 +1648,17 @@
       </c>
     </row>
     <row r="12" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="85"/>
+      <c r="C12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
       <c r="K12" s="19">
         <v>0.72199999999999998</v>
       </c>
@@ -1673,17 +1673,17 @@
       </c>
     </row>
     <row r="13" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="21">
         <v>8047000</v>
       </c>
@@ -1698,17 +1698,17 @@
       </c>
     </row>
     <row r="14" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="23">
         <v>3976000</v>
       </c>
@@ -1723,71 +1723,71 @@
       </c>
     </row>
     <row r="15" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="50">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="34">
         <v>1860</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="35">
         <v>511</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="36">
         <v>150</v>
       </c>
-      <c r="N15" s="82">
+      <c r="N15" s="56">
         <v>973</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="53">
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="37">
         <v>12</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="38">
         <v>1</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="39">
         <v>2</v>
       </c>
-      <c r="N16" s="83">
+      <c r="N16" s="57">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:14" s="29" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="17" t="s">
         <v>2</v>
       </c>
@@ -1823,19 +1823,19 @@
       </c>
     </row>
     <row r="21" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="19">
         <v>0.64</v>
       </c>
@@ -1850,17 +1850,17 @@
       </c>
     </row>
     <row r="22" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="19">
         <v>0.76100000000000001</v>
       </c>
@@ -1875,17 +1875,17 @@
       </c>
     </row>
     <row r="23" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="21">
         <v>5515000</v>
       </c>
@@ -1900,17 +1900,17 @@
       </c>
     </row>
     <row r="24" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
       <c r="K24" s="23">
         <v>2590000</v>
       </c>
@@ -1925,69 +1925,69 @@
       </c>
     </row>
     <row r="25" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="50">
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="34">
         <v>1040</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="35">
         <v>342</v>
       </c>
-      <c r="M25" s="52">
+      <c r="M25" s="36">
         <v>144</v>
       </c>
-      <c r="N25" s="82">
+      <c r="N25" s="56">
         <v>1710</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="42"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="53">
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="37">
         <v>9</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="38">
         <v>0</v>
       </c>
-      <c r="M26" s="55">
+      <c r="M26" s="39">
         <v>1</v>
       </c>
-      <c r="N26" s="83">
+      <c r="N26" s="57">
         <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
       <c r="K27" s="19">
         <v>0.64200000000000002</v>
       </c>
@@ -2002,17 +2002,17 @@
       </c>
     </row>
     <row r="28" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="43" t="s">
+      <c r="B28" s="85"/>
+      <c r="C28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
       <c r="K28" s="19">
         <v>0.78700000000000003</v>
       </c>
@@ -2027,17 +2027,17 @@
       </c>
     </row>
     <row r="29" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="44" t="s">
+      <c r="B29" s="86"/>
+      <c r="C29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="21">
         <v>5132000</v>
       </c>
@@ -2052,17 +2052,17 @@
       </c>
     </row>
     <row r="30" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
       <c r="K30" s="23">
         <v>2453000</v>
       </c>
@@ -2077,110 +2077,110 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="87"/>
+      <c r="C31" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="50">
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="34">
         <v>1030</v>
       </c>
-      <c r="L31" s="51">
+      <c r="L31" s="35">
         <v>326</v>
       </c>
-      <c r="M31" s="52">
+      <c r="M31" s="36">
         <v>158</v>
       </c>
-      <c r="N31" s="82">
+      <c r="N31" s="56">
         <v>942</v>
       </c>
     </row>
     <row r="32" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
-      <c r="C32" s="45" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="53">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="37">
         <v>9</v>
       </c>
-      <c r="L32" s="54">
+      <c r="L32" s="38">
         <v>0</v>
       </c>
-      <c r="M32" s="55">
+      <c r="M32" s="39">
         <v>1</v>
       </c>
-      <c r="N32" s="83">
+      <c r="N32" s="57">
         <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:14" s="29" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
     </row>
     <row r="35" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="70" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="70" t="s">
+      <c r="K36" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="71" t="s">
+      <c r="L36" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="N36" s="73" t="s">
+      <c r="N36" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="19">
@@ -2218,17 +2218,17 @@
       </c>
     </row>
     <row r="38" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="62" t="s">
+      <c r="B38" s="69"/>
+      <c r="C38" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
       <c r="K38" s="19">
         <v>0.44500000000000001</v>
       </c>
@@ -2243,169 +2243,169 @@
       </c>
     </row>
     <row r="39" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="74">
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="48">
         <v>218.8</v>
       </c>
-      <c r="L39" s="75">
+      <c r="L39" s="49">
         <v>237.6</v>
       </c>
-      <c r="M39" s="76">
+      <c r="M39" s="50">
         <v>222.3</v>
       </c>
-      <c r="N39" s="77">
+      <c r="N39" s="51">
         <v>213.77557999999999</v>
       </c>
     </row>
     <row r="40" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="67" t="s">
+      <c r="B40" s="71"/>
+      <c r="C40" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="78">
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="52">
         <v>101.8</v>
       </c>
-      <c r="L40" s="79">
+      <c r="L40" s="53">
         <v>111.6</v>
       </c>
-      <c r="M40" s="80">
+      <c r="M40" s="54">
         <v>104.2</v>
       </c>
-      <c r="N40" s="81">
+      <c r="N40" s="55">
         <v>96.49</v>
       </c>
     </row>
     <row r="41" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="67" t="s">
+      <c r="B41" s="71"/>
+      <c r="C41" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="50">
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="34">
         <v>2230</v>
       </c>
-      <c r="L41" s="51">
+      <c r="L41" s="35">
         <v>500</v>
       </c>
-      <c r="M41" s="52">
+      <c r="M41" s="36">
         <v>199</v>
       </c>
-      <c r="N41" s="82">
+      <c r="N41" s="56">
         <v>869</v>
       </c>
     </row>
     <row r="42" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
-      <c r="C42" s="69" t="s">
+      <c r="B42" s="72"/>
+      <c r="C42" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="53">
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="37">
         <v>14</v>
       </c>
-      <c r="L42" s="54">
+      <c r="L42" s="38">
         <v>1</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="39">
         <v>2</v>
       </c>
-      <c r="N42" s="83">
+      <c r="N42" s="57">
         <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="2:14" s="29" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="56" t="s">
+      <c r="F44" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="75"/>
     </row>
     <row r="45" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="70" t="s">
+      <c r="C46" s="77"/>
+      <c r="D46" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="F46" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="G46" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="70" t="s">
+      <c r="I46" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="J46" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="70" t="s">
+      <c r="K46" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="71" t="s">
+      <c r="L46" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="N46" s="73" t="s">
+      <c r="N46" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
       <c r="K47" s="19">
         <v>0.65800000000000003</v>
       </c>
@@ -2420,17 +2420,17 @@
       </c>
     </row>
     <row r="48" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="62" t="s">
+      <c r="B48" s="69"/>
+      <c r="C48" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
       <c r="K48" s="19">
         <v>0.52200000000000002</v>
       </c>
@@ -2445,102 +2445,102 @@
       </c>
     </row>
     <row r="49" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="64"/>
-      <c r="C49" s="65" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="74">
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="48">
         <v>203.2</v>
       </c>
-      <c r="L49" s="75">
+      <c r="L49" s="49">
         <v>198</v>
       </c>
-      <c r="M49" s="76">
+      <c r="M49" s="50">
         <v>191.8</v>
       </c>
-      <c r="N49" s="77">
+      <c r="N49" s="51">
         <v>169.14490799999999</v>
       </c>
     </row>
     <row r="50" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="66"/>
-      <c r="C50" s="67" t="s">
+      <c r="B50" s="71"/>
+      <c r="C50" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="78">
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="52">
         <v>79.53</v>
       </c>
-      <c r="L50" s="79">
+      <c r="L50" s="53">
         <v>71.67</v>
       </c>
-      <c r="M50" s="80">
+      <c r="M50" s="54">
         <v>73.72</v>
       </c>
-      <c r="N50" s="81">
+      <c r="N50" s="55">
         <v>62.79</v>
       </c>
     </row>
     <row r="51" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67" t="s">
+      <c r="B51" s="71"/>
+      <c r="C51" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="50">
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="34">
         <v>1920</v>
       </c>
-      <c r="L51" s="51">
+      <c r="L51" s="35">
         <v>564</v>
       </c>
-      <c r="M51" s="52">
+      <c r="M51" s="36">
         <v>223</v>
       </c>
-      <c r="N51" s="84">
+      <c r="N51" s="58">
         <v>1620</v>
       </c>
     </row>
     <row r="52" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="68"/>
-      <c r="C52" s="69" t="s">
+      <c r="B52" s="72"/>
+      <c r="C52" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="53">
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="37">
         <v>11</v>
       </c>
-      <c r="L52" s="54">
+      <c r="L52" s="38">
         <v>1</v>
       </c>
-      <c r="M52" s="55">
+      <c r="M52" s="39">
         <v>2</v>
       </c>
-      <c r="N52" s="83">
+      <c r="N52" s="57">
         <v>166</v>
       </c>
     </row>
@@ -2570,46 +2570,46 @@
     <row r="76" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="92" t="s">
+      <c r="F78" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="93"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
     </row>
     <row r="79" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="93"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="93"/>
-      <c r="I79" s="93"/>
-      <c r="J79" s="93"/>
-      <c r="K79" s="93"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67"/>
     </row>
     <row r="80" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="93"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="93"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
     </row>
     <row r="81" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
-      <c r="I81" s="93"/>
-      <c r="J81" s="93"/>
-      <c r="K81" s="93"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
     </row>
     <row r="82" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
     </row>
     <row r="83" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2643,13 +2643,13 @@
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="39"/>
+      <c r="G87" s="90"/>
+      <c r="H87" s="90"/>
+      <c r="I87" s="90"/>
+      <c r="J87" s="91"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="89" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="31"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="17" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="85" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="15" t="s">
@@ -2783,7 +2783,7 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
-      <c r="B91" s="33"/>
+      <c r="B91" s="86"/>
       <c r="C91" s="13" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
-      <c r="B92" s="34"/>
+      <c r="B92" s="87"/>
       <c r="C92" s="14" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="92" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -2926,7 +2926,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
-      <c r="B94" s="33"/>
+      <c r="B94" s="86"/>
       <c r="C94" s="13" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
-      <c r="B95" s="36"/>
+      <c r="B95" s="88"/>
       <c r="C95" s="16" t="s">
         <v>4</v>
       </c>
@@ -3070,13 +3070,13 @@
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="37" t="s">
+      <c r="F98" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="39"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="90"/>
+      <c r="I98" s="90"/>
+      <c r="J98" s="91"/>
       <c r="K98" s="29"/>
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="100" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="31"/>
+      <c r="C100" s="79"/>
       <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="85" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -3210,7 +3210,7 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
-      <c r="B102" s="33"/>
+      <c r="B102" s="86"/>
       <c r="C102" s="13" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
-      <c r="B103" s="34"/>
+      <c r="B103" s="87"/>
       <c r="C103" s="14" t="s">
         <v>4</v>
       </c>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="92" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="15" t="s">
@@ -3353,7 +3353,7 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
-      <c r="B105" s="33"/>
+      <c r="B105" s="86"/>
       <c r="C105" s="13" t="s">
         <v>3</v>
       </c>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="106" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
-      <c r="B106" s="36"/>
+      <c r="B106" s="88"/>
       <c r="C106" s="16" t="s">
         <v>4</v>
       </c>
@@ -3497,13 +3497,13 @@
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
-      <c r="F109" s="37" t="s">
+      <c r="F109" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="39"/>
+      <c r="G109" s="90"/>
+      <c r="H109" s="90"/>
+      <c r="I109" s="90"/>
+      <c r="J109" s="91"/>
       <c r="K109" s="29"/>
       <c r="L109" s="29"/>
       <c r="M109" s="29"/>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="111" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="31"/>
+      <c r="C111" s="79"/>
       <c r="D111" s="17" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="85" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
-      <c r="B113" s="33"/>
+      <c r="B113" s="86"/>
       <c r="C113" s="13" t="s">
         <v>3</v>
       </c>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="114" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="29"/>
-      <c r="B114" s="34"/>
+      <c r="B114" s="87"/>
       <c r="C114" s="14" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="92" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="15" t="s">
@@ -3780,7 +3780,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
-      <c r="B116" s="33"/>
+      <c r="B116" s="86"/>
       <c r="C116" s="13" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="117" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29"/>
-      <c r="B117" s="36"/>
+      <c r="B117" s="88"/>
       <c r="C117" s="16" t="s">
         <v>4</v>
       </c>
@@ -4058,21 +4058,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F78:K82"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="F18:J18"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:B114"/>
     <mergeCell ref="B115:B117"/>
@@ -4085,7 +4070,46 @@
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="B104:B106"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F78:K82"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:B52"/>
   </mergeCells>
+  <conditionalFormatting sqref="D5:N5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:N37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D90:N90">
     <cfRule type="colorScale" priority="67">
       <colorScale>
@@ -4302,6 +4326,366 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K5:N5">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:N6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:N7">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:N8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:N9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:N10">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:N11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:N12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:N13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:N14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:N15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:N16">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:N21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:N22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:N23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:N24">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:N25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:N26">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:N27">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:N28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:N29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:N30">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:N31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:N32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:N37">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:N38">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:N39">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:N40">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:N41">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:N42">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K47:N47">
     <cfRule type="colorScale" priority="43">
       <colorScale>
@@ -4371,390 +4755,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37:N37">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:N38">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:N39">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:N40">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:N41">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42:N42">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:N5">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:N6">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:N7">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:N8">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:N9">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:N10">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:N11">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:N12">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:N13">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:N14">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:N15">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:N16">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:N21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:N22">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:N23">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:N24">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:N25">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:N26">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:N27">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:N28">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:N29">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:N30">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:N31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:N32">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:N37">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:N5">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/scores des modèles.xlsx
+++ b/scores des modèles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\OpenClassrooms\Projets\03 - Anticipez les besoins en consommation de bâtiments\Projet 03 - Fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099670EC-234E-490C-B3A4-48CE708FC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC93842-7955-4B16-B871-9163A8BBE911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1010,25 +1010,52 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,52 +1073,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,20 +1406,20 @@
   <sheetData>
     <row r="1" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="29" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -1496,7 +1496,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="81"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="30" t="s">
         <v>27</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="33" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="33" t="s">
         <v>22</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="84"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="32" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="68" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -1648,7 +1648,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="85"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="30" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="86"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="31" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="87"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="33" t="s">
         <v>26</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="87"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="33" t="s">
         <v>22</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="32" t="s">
         <v>23</v>
       </c>
@@ -1774,20 +1774,20 @@
     </row>
     <row r="17" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:14" s="29" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
     </row>
     <row r="19" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="17" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="77" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="30" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="82"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="31" t="s">
         <v>25</v>
       </c>
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="83"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="33" t="s">
         <v>26</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="83"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="33" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="84"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="32" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="68" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="30" t="s">
         <v>27</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="31" t="s">
         <v>25</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="33" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="33" t="s">
         <v>22</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="88"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="32" t="s">
         <v>23</v>
       </c>
@@ -2128,20 +2128,20 @@
     </row>
     <row r="33" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:14" s="29" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="84"/>
     </row>
     <row r="35" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="44" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="40" t="s">
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
+      <c r="B38" s="90"/>
       <c r="C38" s="40" t="s">
         <v>27</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="70"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="41" t="s">
         <v>25</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="42" t="s">
         <v>26</v>
       </c>
@@ -2293,7 +2293,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="71"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="42" t="s">
         <v>22</v>
       </c>
@@ -2318,7 +2318,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="72"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="43" t="s">
         <v>23</v>
       </c>
@@ -2344,20 +2344,20 @@
     </row>
     <row r="43" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="2:14" s="29" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="73" t="s">
+      <c r="F44" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="75"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="84"/>
     </row>
     <row r="45" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:14" s="29" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="77"/>
+      <c r="C46" s="86"/>
       <c r="D46" s="44" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
     </row>
     <row r="47" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="40" t="s">
@@ -2416,11 +2416,11 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="N47" s="1">
-        <v>0.628</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="48" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="69"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="40" t="s">
         <v>27</v>
       </c>
@@ -2441,11 +2441,11 @@
         <v>0.57399999999999995</v>
       </c>
       <c r="N48" s="1">
-        <v>0.66800000000000004</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="49" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="70"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="41" t="s">
         <v>25</v>
       </c>
@@ -2466,11 +2466,11 @@
         <v>191.8</v>
       </c>
       <c r="N49" s="51">
-        <v>169.14490799999999</v>
+        <v>147.30000000000001</v>
       </c>
     </row>
     <row r="50" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="71"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="42" t="s">
         <v>26</v>
       </c>
@@ -2491,11 +2491,11 @@
         <v>73.72</v>
       </c>
       <c r="N50" s="55">
-        <v>62.79</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="51" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="71"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="42" t="s">
         <v>22</v>
       </c>
@@ -2520,7 +2520,7 @@
       </c>
     </row>
     <row r="52" spans="2:14" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="72"/>
+      <c r="B52" s="93"/>
       <c r="C52" s="43" t="s">
         <v>23</v>
       </c>
@@ -2570,46 +2570,46 @@
     <row r="76" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="67"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="88"/>
     </row>
     <row r="79" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="88"/>
     </row>
     <row r="80" spans="6:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="67"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="88"/>
+      <c r="K80" s="88"/>
     </row>
     <row r="81" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="88"/>
+      <c r="J81" s="88"/>
+      <c r="K81" s="88"/>
     </row>
     <row r="82" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="88"/>
+      <c r="K82" s="88"/>
     </row>
     <row r="83" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2643,13 +2643,13 @@
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
-      <c r="F87" s="93" t="s">
+      <c r="F87" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G87" s="90"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="90"/>
-      <c r="J87" s="91"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="75"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="89" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
-      <c r="B89" s="78" t="s">
+      <c r="B89" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="79"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="17" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
-      <c r="B90" s="85" t="s">
+      <c r="B90" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="15" t="s">
@@ -2783,7 +2783,7 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
-      <c r="B91" s="86"/>
+      <c r="B91" s="69"/>
       <c r="C91" s="13" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
-      <c r="B92" s="87"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="14" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
-      <c r="B93" s="92" t="s">
+      <c r="B93" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -2926,7 +2926,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
-      <c r="B94" s="86"/>
+      <c r="B94" s="69"/>
       <c r="C94" s="13" t="s">
         <v>3</v>
       </c>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
-      <c r="B95" s="88"/>
+      <c r="B95" s="72"/>
       <c r="C95" s="16" t="s">
         <v>4</v>
       </c>
@@ -3070,13 +3070,13 @@
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="93" t="s">
+      <c r="F98" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="90"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-      <c r="J98" s="91"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="75"/>
       <c r="K98" s="29"/>
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="100" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
-      <c r="B100" s="78" t="s">
+      <c r="B100" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="79"/>
+      <c r="C100" s="67"/>
       <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
-      <c r="B101" s="85" t="s">
+      <c r="B101" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -3210,7 +3210,7 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
-      <c r="B102" s="86"/>
+      <c r="B102" s="69"/>
       <c r="C102" s="13" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
-      <c r="B103" s="87"/>
+      <c r="B103" s="70"/>
       <c r="C103" s="14" t="s">
         <v>4</v>
       </c>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
-      <c r="B104" s="92" t="s">
+      <c r="B104" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="15" t="s">
@@ -3353,7 +3353,7 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
-      <c r="B105" s="86"/>
+      <c r="B105" s="69"/>
       <c r="C105" s="13" t="s">
         <v>3</v>
       </c>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="106" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="29"/>
-      <c r="B106" s="88"/>
+      <c r="B106" s="72"/>
       <c r="C106" s="16" t="s">
         <v>4</v>
       </c>
@@ -3497,13 +3497,13 @@
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
-      <c r="F109" s="93" t="s">
+      <c r="F109" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="90"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="91"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="75"/>
       <c r="K109" s="29"/>
       <c r="L109" s="29"/>
       <c r="M109" s="29"/>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="111" spans="1:21" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="29"/>
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="79"/>
+      <c r="C111" s="67"/>
       <c r="D111" s="17" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
-      <c r="B112" s="85" t="s">
+      <c r="B112" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
-      <c r="B113" s="86"/>
+      <c r="B113" s="69"/>
       <c r="C113" s="13" t="s">
         <v>3</v>
       </c>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="114" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="29"/>
-      <c r="B114" s="87"/>
+      <c r="B114" s="70"/>
       <c r="C114" s="14" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
-      <c r="B115" s="92" t="s">
+      <c r="B115" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="15" t="s">
@@ -3780,7 +3780,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
-      <c r="B116" s="86"/>
+      <c r="B116" s="69"/>
       <c r="C116" s="13" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="117" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="29"/>
-      <c r="B117" s="88"/>
+      <c r="B117" s="72"/>
       <c r="C117" s="16" t="s">
         <v>4</v>
       </c>
@@ -4058,6 +4058,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F78:K82"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="F18:J18"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:B114"/>
     <mergeCell ref="B115:B117"/>
@@ -4070,21 +4085,6 @@
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="B104:B106"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F78:K82"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:B52"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:N5">
     <cfRule type="colorScale" priority="1">

--- a/scores des modèles.xlsx
+++ b/scores des modèles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\OpenClassrooms\Projets\03 - Anticipez les besoins en consommation de bâtiments\Projet 03 - Fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08580B58-80F4-4F9F-BE02-FC48B8736E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92242E93-1D28-4208-B4CF-3D77DA55BF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,12 +895,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,13 +910,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -998,39 +986,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,10 +1019,94 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,57 +1119,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1421,9 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,894 +1432,972 @@
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" s="15" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="64" t="s">
+    <row r="1" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
-    <row r="3" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:17" s="15" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+    <row r="3" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:17" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="67"/>
+      <c r="N4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0.498</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>0.53800000000000003</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.53800000000000003</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>0.498</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>0.216</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>-0.121</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="46" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>0.70099999999999996</v>
       </c>
-      <c r="O5" s="80">
+      <c r="O5" s="61">
         <v>0.65</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>0.68400000000000005</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.622</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:17" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+    <row r="6" spans="2:17" s="11" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="57">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="57">
         <v>0.16300000000000001</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="57">
         <v>0.24</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="57">
         <v>0.313</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="57">
         <v>0.245</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="57">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="57">
         <v>0.25800000000000001</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="7">
         <v>0.68400000000000005</v>
       </c>
-      <c r="O6" s="80">
+      <c r="O6" s="61">
         <v>0.75600000000000001</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>0.61199999999999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.82599999999999996</v>
+        <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="72"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="17" t="s">
+    <row r="7" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>5699000</v>
       </c>
-      <c r="O7" s="81">
+      <c r="O7" s="62">
         <v>5008000</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="9">
         <v>6317000</v>
       </c>
       <c r="Q7" s="2">
-        <v>4233000</v>
+        <v>4191000</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="72"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="18" t="s">
+    <row r="8" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="10">
         <v>3093000</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="63">
         <v>2702000</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="10">
         <v>3359000</v>
       </c>
       <c r="Q8" s="3">
-        <v>2454000</v>
+        <v>2443000</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="18" t="s">
+    <row r="9" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="15">
         <v>2030</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="64">
         <v>495</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="15">
         <v>246</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="32">
         <v>5640</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="18" t="s">
+    <row r="10" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="53"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="15">
         <v>11</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="64">
         <v>1</v>
       </c>
-      <c r="P10" s="84">
+      <c r="P10" s="65">
         <v>1</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="50" t="s">
+    <row r="11" spans="2:17" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="37">
         <v>0.65800000000000003</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="38">
         <v>0.59799999999999998</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="39">
         <v>0.54100000000000004</v>
       </c>
-      <c r="Q11" s="55">
-        <v>0.65400000000000003</v>
+      <c r="Q11" s="40">
+        <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="56" t="s">
+    <row r="12" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>0.52200000000000002</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="8">
         <v>0.54500000000000004</v>
       </c>
       <c r="P12" s="4">
         <v>0.57399999999999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.70199999999999996</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="25" t="s">
+    <row r="13" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="24">
         <v>203.2</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="25">
         <v>198</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="26">
         <v>191.8</v>
       </c>
-      <c r="Q13" s="31">
-        <v>160.4</v>
+      <c r="Q13" s="27">
+        <v>139.69999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="26" t="s">
+    <row r="14" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="53"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="28">
         <v>79.53</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="29">
         <v>71.67</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="30">
         <v>73.72</v>
       </c>
-      <c r="Q14" s="35">
-        <v>60.15</v>
+      <c r="Q14" s="31">
+        <v>56.81</v>
       </c>
     </row>
-    <row r="15" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="26" t="s">
+    <row r="15" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="15">
         <v>1920</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="16">
         <v>564</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="17">
         <v>223</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="34">
         <v>5650</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="27" t="s">
+    <row r="16" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="18">
         <v>11</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="19">
         <v>1</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="20">
         <v>2</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="33">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:17" s="15" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="64" t="s">
+    <row r="17" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:17" s="11" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="67"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
     </row>
-    <row r="19" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:17" s="15" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44" t="s">
+    <row r="19" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:17" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="77" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="44" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="8" t="s">
+      <c r="M20" s="67"/>
+      <c r="N20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="59">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="59">
         <v>0.41899999999999998</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="59">
         <v>0.55800000000000005</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="59">
         <v>0.55700000000000005</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="59">
         <v>0.41899999999999998</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="59">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="59">
         <v>-0.114</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="46" t="s">
+      <c r="K21" s="43"/>
+      <c r="L21" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="7">
         <v>0.64</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="61">
         <v>0.63600000000000001</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="7">
         <v>0.58099999999999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.66200000000000003</v>
+        <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="22" spans="2:17" s="15" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="74" t="s">
+    <row r="22" spans="2:17" s="11" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="57">
         <v>-1.9E-2</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="57">
         <v>-0.66500000000000004</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="57">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="57">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="57">
         <v>-0.29599999999999999</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="57">
         <v>0.13</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="57">
         <v>0.28199999999999997</v>
       </c>
-      <c r="K22" s="63"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="17" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="7">
         <v>0.78200000000000003</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="61">
         <v>0.72699999999999998</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="7">
         <v>0.77200000000000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.68200000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="17" t="s">
+    <row r="23" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <v>5264000</v>
       </c>
-      <c r="O23" s="81">
+      <c r="O23" s="62">
         <v>5886000</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="9">
         <v>5381000</v>
       </c>
       <c r="Q23" s="2">
-        <v>6354525.9000000004</v>
+        <v>6095000</v>
       </c>
     </row>
-    <row r="24" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="18" t="s">
+    <row r="24" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="53"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="10">
         <v>2488000</v>
       </c>
-      <c r="O24" s="82">
+      <c r="O24" s="63">
         <v>2697000</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="10">
         <v>2686000</v>
       </c>
       <c r="Q24" s="3">
-        <v>2888000</v>
+        <v>2746000</v>
       </c>
     </row>
-    <row r="25" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="18" t="s">
+    <row r="25" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="53"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="15">
         <v>1140</v>
       </c>
-      <c r="O25" s="83">
+      <c r="O25" s="64">
         <v>388</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="15">
         <v>144</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="32">
         <v>10600</v>
       </c>
     </row>
-    <row r="26" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="18" t="s">
+    <row r="26" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="15">
         <v>10</v>
       </c>
-      <c r="O26" s="83">
+      <c r="O26" s="64">
         <v>1</v>
       </c>
-      <c r="P26" s="84">
+      <c r="P26" s="65">
         <v>1</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="32">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="2:17" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="50" t="s">
+    <row r="27" spans="2:17" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="51" t="s">
+      <c r="M27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="52">
+      <c r="N27" s="37">
         <v>0.52</v>
       </c>
-      <c r="O27" s="53">
+      <c r="O27" s="38">
         <v>0.27500000000000002</v>
       </c>
-      <c r="P27" s="54">
+      <c r="P27" s="39">
         <v>0.57299999999999995</v>
       </c>
-      <c r="Q27" s="55">
-        <v>0.58299999999999996</v>
+      <c r="Q27" s="40">
+        <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="72"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="56" t="s">
+    <row r="28" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="53"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="7">
         <v>0.61399999999999999</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="8">
         <v>0.70099999999999996</v>
       </c>
       <c r="P28" s="4">
         <v>0.80500000000000005</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.84899999999999998</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="72"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="25" t="s">
+    <row r="29" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="53"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="24">
         <v>163.80000000000001</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="25">
         <v>144.19999999999999</v>
       </c>
-      <c r="P29" s="5">
-        <v>4982000</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>102.5</v>
+      <c r="P29" s="26">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>101.2</v>
       </c>
     </row>
-    <row r="30" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="72"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="26" t="s">
+    <row r="30" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="53"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="28">
         <v>59.94</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="29">
         <v>59.88</v>
       </c>
-      <c r="P30" s="6">
-        <v>2572000</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>51.81</v>
+      <c r="P30" s="30">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>46.38</v>
       </c>
     </row>
-    <row r="31" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="72"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="26" t="s">
+    <row r="31" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="53"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N31" s="15">
         <v>1090</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="16">
         <v>369</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="17">
         <v>191</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="32">
         <v>10500</v>
       </c>
     </row>
-    <row r="32" spans="2:17" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="27" t="s">
+    <row r="32" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="18">
         <v>9</v>
       </c>
-      <c r="O32" s="23">
+      <c r="O32" s="19">
         <v>0</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P32" s="20">
         <v>1</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="33">
         <v>210</v>
       </c>
     </row>
-    <row r="33" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L5:L10"/>
     <mergeCell ref="L11:L16"/>
     <mergeCell ref="L21:L26"/>
     <mergeCell ref="L27:L32"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
+  <conditionalFormatting sqref="D6:J6 N11:Q11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:J6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:J22 N27:Q27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:J22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5 N5:Q5">
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -2346,6 +2410,88 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D11:K11 N11:Q11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:K11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:K21 N21:Q21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:K21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:K27 N27:Q27">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:K27">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N5:Q5">
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -2418,6 +2564,78 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N11:Q11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:Q12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:Q13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:Q14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:Q15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:Q16">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N21:Q21">
     <cfRule type="colorScale" priority="35">
       <colorScale>
@@ -2559,246 +2777,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:Q11">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:Q12">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:Q13">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:Q14">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:Q16">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:K27">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21 N21:Q21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:K27 N27:Q27">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11 N11:Q11">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:J22">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:J22">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:J22 N27:Q27">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6 N11:Q11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/scores des modèles.xlsx
+++ b/scores des modèles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\OpenClassrooms\Projets\03 - Anticipez les besoins en consommation de bâtiments\Projet 03 - Fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92242E93-1D28-4208-B4CF-3D77DA55BF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4E449-6443-4D0C-820D-7BE20D55B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
   <si>
     <t>DummyRegressor</t>
   </si>
@@ -104,6 +104,21 @@
   <si>
     <t>Modèles retenus</t>
   </si>
+  <si>
+    <t>Sans ENERGYSTARScore</t>
+  </si>
+  <si>
+    <t>Avec ENERGYSTARScore</t>
+  </si>
+  <si>
+    <t>Consommation</t>
+  </si>
+  <si>
+    <t>Émissions</t>
+  </si>
+  <si>
+    <t>Graphiques</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +128,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +167,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -185,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -877,11 +900,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,37 +1169,28 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,6 +1204,53 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,7 +1261,10 @@
   <colors>
     <mruColors>
       <color rgb="FFCDCDFF"/>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FF8181FF"/>
+      <color rgb="FF44546A"/>
+      <color rgb="FFE5E5E5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1142,6 +1276,2279 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Scores R² moyens - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Sans</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" i="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>ENERGYSTAR Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22286874970000353"/>
+          <c:y val="4.3579776305359356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consommation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8181FF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$36:$N$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>DummyRegressor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LinearRegression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KernelRidge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lasso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNeighborsRegressor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestRegressor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GradientBoostingRegressor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRegressor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Keras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$37:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58E2-4DB1-B688-C94A2158A539}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Émissions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$36:$N$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>DummyRegressor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LinearRegression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KernelRidge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lasso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNeighborsRegressor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestRegressor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GradientBoostingRegressor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRegressor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Keras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$38:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58E2-4DB1-B688-C94A2158A539}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="396509648"/>
+        <c:axId val="307729472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="396509648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307729472"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="307729472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="-0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396509648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10250566696408875"/>
+          <c:y val="0.58481125653612775"/>
+          <c:w val="0.36440683685323139"/>
+          <c:h val="6.3411693887962139E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Scores R² moyens - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Avec</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" i="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>ENERGYSTAR Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22214645734274815"/>
+          <c:y val="3.3761666569573974E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4891619921941354E-2"/>
+          <c:y val="0.119804768663422"/>
+          <c:w val="0.92374353822914779"/>
+          <c:h val="0.58154859312689655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consommation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8181FF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$36:$N$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>DummyRegressor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LinearRegression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KernelRidge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lasso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNeighborsRegressor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestRegressor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GradientBoostingRegressor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRegressor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Keras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$41:$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58E2-4DB1-B688-C94A2158A539}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Émissions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$D$36:$N$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>DummyRegressor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LinearRegression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ridge</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KernelRidge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lasso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KNeighborsRegressor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForestRegressor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GradientBoostingRegressor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XGBRegressor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Keras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$42:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58E2-4DB1-B688-C94A2158A539}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="396509648"/>
+        <c:axId val="307729472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="396509648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307729472"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="307729472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+          <c:min val="-0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396509648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.53023698745946246"/>
+          <c:y val="0.55028629104152216"/>
+          <c:w val="0.39848034204867028"/>
+          <c:h val="5.2430494872623211E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="44546A"/>
+              </a:solidFill>
+              <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>124720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>173492</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0F72FB-3A8E-83E2-3627-AC9D01F600CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>52602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>162606</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2DD658-1444-AA80-4366-1F241F49CD9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1407,15 +3814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q39"/>
+  <dimension ref="A1:AW312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
@@ -1423,7 +3830,7 @@
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="23.140625" customWidth="1"/>
     <col min="13" max="13" width="27.42578125" customWidth="1"/>
     <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -1434,23 +3841,23 @@
   <sheetData>
     <row r="1" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" s="11" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
     </row>
     <row r="3" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:17" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1473,10 +3880,10 @@
         <v>7</v>
       </c>
       <c r="K4" s="42"/>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="67"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +3926,7 @@
         <v>-0.121</v>
       </c>
       <c r="K5" s="43"/>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="80" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="44" t="s">
@@ -1567,7 +3974,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="K6" s="48"/>
-      <c r="L6" s="69"/>
+      <c r="L6" s="81"/>
       <c r="M6" s="13" t="s">
         <v>18</v>
       </c>
@@ -1595,7 +4002,7 @@
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
       <c r="K7" s="45"/>
-      <c r="L7" s="70"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +4030,7 @@
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
       <c r="K8" s="45"/>
-      <c r="L8" s="71"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +4058,7 @@
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
       <c r="K9" s="46"/>
-      <c r="L9" s="71"/>
+      <c r="L9" s="83"/>
       <c r="M9" s="14" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +4086,7 @@
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
       <c r="K10" s="46"/>
-      <c r="L10" s="71"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="14" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +4114,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
       <c r="K11" s="48"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="84" t="s">
         <v>1</v>
       </c>
       <c r="M11" s="36" t="s">
@@ -1737,7 +4144,7 @@
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
       <c r="K12" s="48"/>
-      <c r="L12" s="73"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="41" t="s">
         <v>18</v>
       </c>
@@ -1765,7 +4172,7 @@
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="21" t="s">
         <v>16</v>
       </c>
@@ -1793,7 +4200,7 @@
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="45"/>
-      <c r="L14" s="75"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="22" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +4228,7 @@
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
       <c r="K15" s="46"/>
-      <c r="L15" s="75"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="22" t="s">
         <v>13</v>
       </c>
@@ -1849,7 +4256,7 @@
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="76"/>
+      <c r="L16" s="88"/>
       <c r="M16" s="23" t="s">
         <v>14</v>
       </c>
@@ -1868,23 +4275,23 @@
     </row>
     <row r="17" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:17" s="11" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:17" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="58" t="s">
         <v>0</v>
       </c>
@@ -1907,10 +4314,10 @@
         <v>7</v>
       </c>
       <c r="K20" s="42"/>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="67"/>
+      <c r="M20" s="79"/>
       <c r="N20" s="6" t="s">
         <v>8</v>
       </c>
@@ -1953,7 +4360,7 @@
         <v>-0.114</v>
       </c>
       <c r="K21" s="43"/>
-      <c r="L21" s="68" t="s">
+      <c r="L21" s="80" t="s">
         <v>12</v>
       </c>
       <c r="M21" s="44" t="s">
@@ -2001,7 +4408,7 @@
         <v>0.28199999999999997</v>
       </c>
       <c r="K22" s="48"/>
-      <c r="L22" s="69"/>
+      <c r="L22" s="81"/>
       <c r="M22" s="13" t="s">
         <v>18</v>
       </c>
@@ -2029,7 +4436,7 @@
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
       <c r="K23" s="45"/>
-      <c r="L23" s="70"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="13" t="s">
         <v>16</v>
       </c>
@@ -2057,7 +4464,7 @@
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
       <c r="K24" s="45"/>
-      <c r="L24" s="71"/>
+      <c r="L24" s="83"/>
       <c r="M24" s="14" t="s">
         <v>17</v>
       </c>
@@ -2085,7 +4492,7 @@
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
       <c r="K25" s="46"/>
-      <c r="L25" s="71"/>
+      <c r="L25" s="83"/>
       <c r="M25" s="14" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +4520,7 @@
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="K26" s="46"/>
-      <c r="L26" s="71"/>
+      <c r="L26" s="83"/>
       <c r="M26" s="14" t="s">
         <v>14</v>
       </c>
@@ -2141,7 +4548,7 @@
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
       <c r="K27" s="48"/>
-      <c r="L27" s="72" t="s">
+      <c r="L27" s="84" t="s">
         <v>1</v>
       </c>
       <c r="M27" s="36" t="s">
@@ -2171,7 +4578,7 @@
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
       <c r="K28" s="48"/>
-      <c r="L28" s="73"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="41" t="s">
         <v>18</v>
       </c>
@@ -2199,7 +4606,7 @@
       <c r="I29" s="50"/>
       <c r="J29" s="50"/>
       <c r="K29" s="45"/>
-      <c r="L29" s="74"/>
+      <c r="L29" s="86"/>
       <c r="M29" s="21" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +4634,7 @@
       <c r="I30" s="50"/>
       <c r="J30" s="50"/>
       <c r="K30" s="45"/>
-      <c r="L30" s="75"/>
+      <c r="L30" s="87"/>
       <c r="M30" s="22" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +4662,7 @@
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
       <c r="K31" s="46"/>
-      <c r="L31" s="75"/>
+      <c r="L31" s="87"/>
       <c r="M31" s="22" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +4690,7 @@
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
       <c r="K32" s="46"/>
-      <c r="L32" s="76"/>
+      <c r="L32" s="88"/>
       <c r="M32" s="23" t="s">
         <v>14</v>
       </c>
@@ -2300,16 +4707,786 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:49" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:49" s="11" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
+    </row>
+    <row r="35" spans="1:49" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+    </row>
+    <row r="37" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="66">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E37" s="66">
+        <v>0.498</v>
+      </c>
+      <c r="F37" s="66">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G37" s="66">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H37" s="66">
+        <v>0.498</v>
+      </c>
+      <c r="I37" s="66">
+        <v>0.216</v>
+      </c>
+      <c r="J37" s="66">
+        <v>-0.121</v>
+      </c>
+      <c r="K37" s="67">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="L37" s="68">
+        <v>0.65</v>
+      </c>
+      <c r="M37" s="67">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="N37" s="69">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+    </row>
+    <row r="38" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="57">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E38" s="57">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F38" s="57">
+        <v>0.24</v>
+      </c>
+      <c r="G38" s="57">
+        <v>0.313</v>
+      </c>
+      <c r="H38" s="57">
+        <v>0.245</v>
+      </c>
+      <c r="I38" s="57">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="J38" s="57">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="K38" s="57">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L38" s="70">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="M38" s="57">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N38" s="71">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+    </row>
+    <row r="39" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+    </row>
+    <row r="40" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+    </row>
+    <row r="41" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="59">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E41" s="59">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F41" s="59">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="G41" s="59">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H41" s="59">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="I41" s="59">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J41" s="59">
+        <v>-0.114</v>
+      </c>
+      <c r="K41" s="66">
+        <v>0.64</v>
+      </c>
+      <c r="L41" s="72">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M41" s="66">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="N41" s="73">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+    </row>
+    <row r="42" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="57">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="E42" s="57">
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="F42" s="57">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G42" s="57">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H42" s="57">
+        <v>-0.29599999999999999</v>
+      </c>
+      <c r="I42" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="J42" s="57">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="K42" s="57">
+        <v>0.52</v>
+      </c>
+      <c r="L42" s="70">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M42" s="57">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="N42" s="71">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="11"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+    </row>
+    <row r="43" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="L27:L32"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F34:M34"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="F18:M18"/>
     <mergeCell ref="L4:M4"/>
@@ -2317,10 +5494,504 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L5:L10"/>
     <mergeCell ref="L11:L16"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="L27:L32"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:J6 N11:Q11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:J6">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:J22 N27:Q27">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:J22">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:K5 N5:Q5">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:K11 N11:Q11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:K11">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:K21 N21:Q21">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:K21">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:K27 N27:Q27">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:K27">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:Q5">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:Q6">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:Q7">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:Q8">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:Q9">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:Q10">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:Q11">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:Q12">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:Q13">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:Q14">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:Q15">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:Q16">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:Q21">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:Q22">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:Q23">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:Q24">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:Q25">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:Q26">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:Q27">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:Q28">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29:Q29">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30:Q30">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31:Q31">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:Q32">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:N37">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:N38">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:N41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:N42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2332,455 +6003,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:J6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:J22 N27:Q27">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:J22">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:K5 N5:Q5">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11 N11:Q11">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21 N21:Q21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:K27 N27:Q27">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:K27">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:Q5">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:Q6">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:Q7">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:Q8">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9:Q9">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:Q10">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:Q11">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:Q12">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:Q13">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:Q14">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:Q16">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21:Q21">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:Q22">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23:Q23">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24:Q24">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25:Q25">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26:Q26">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N27:Q27">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N28:Q28">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N29:Q29">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N30:Q30">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N31:Q31">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32:Q32">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scores des modèles.xlsx
+++ b/scores des modèles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Data Science\Desktop\OpenClassrooms\Projets\03 - Anticipez les besoins en consommation de bâtiments\Projet 03 - Fichiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4E449-6443-4D0C-820D-7BE20D55B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE7FAF-987F-4B18-9EF2-658E8822BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="30">
   <si>
     <t>DummyRegressor</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Graphiques</t>
+  </si>
+  <si>
+    <t>R² moyens sur test</t>
+  </si>
+  <si>
+    <t>Durée fit moyen</t>
   </si>
 </sst>
 </file>
@@ -974,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,6 +1199,53 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,52 +1258,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1354,7 @@
                 </a:solidFill>
                 <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
               </a:rPr>
-              <a:t>Scores R² moyens - </a:t>
+              <a:t>Scores R² moyens (GridSearchCV) - </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" sz="3200" b="1" baseline="0">
@@ -1354,7 +1390,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22286874970000353"/>
+          <c:x val="0.15070996511758719"/>
           <c:y val="4.3579776305359356E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1868,7 +1904,25 @@
                 </a:solidFill>
                 <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
               </a:rPr>
-              <a:t>Scores R² moyens - </a:t>
+              <a:t>Scores R² moyens </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>(GridSearchCV) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="DIN Alternate" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>- </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" sz="3200" b="1" baseline="0">
@@ -3816,7 +3870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3837,27 +3893,37 @@
     <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" s="11" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="74" t="s">
+    <row r="1" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" s="11" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:17" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+    <row r="3" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="100"/>
+    </row>
+    <row r="4" spans="2:22" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
@@ -3880,10 +3946,10 @@
         <v>7</v>
       </c>
       <c r="K4" s="42"/>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="79"/>
+      <c r="M4" s="90"/>
       <c r="N4" s="6" t="s">
         <v>8</v>
       </c>
@@ -3896,8 +3962,20 @@
       <c r="Q4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="S4" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="97" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
@@ -3944,8 +4022,24 @@
       <c r="Q5" s="1">
         <v>0.63900000000000001</v>
       </c>
+      <c r="S5" s="101">
+        <f>(N6+N12+N22+N28)/4</f>
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="T5" s="101">
+        <f>(O6+O12+O22+O28)/4</f>
+        <v>0.68225000000000002</v>
+      </c>
+      <c r="U5" s="102">
+        <f>(P6+P12+P22+P28)/4</f>
+        <v>0.69074999999999998</v>
+      </c>
+      <c r="V5" s="101">
+        <f>(Q6+Q12+Q22+Q28)/4</f>
+        <v>0.79099999999999993</v>
+      </c>
     </row>
-    <row r="6" spans="2:17" s="11" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" s="11" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +4085,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53"/>
       <c r="C7" s="52"/>
       <c r="D7" s="50"/>
@@ -4018,8 +4112,14 @@
       <c r="Q7" s="2">
         <v>4191000</v>
       </c>
+      <c r="S7" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="104"/>
     </row>
-    <row r="8" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53"/>
       <c r="C8" s="52"/>
       <c r="D8" s="50"/>
@@ -4046,8 +4146,20 @@
       <c r="Q8" s="3">
         <v>2443000</v>
       </c>
+      <c r="S8" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="97" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53"/>
       <c r="C9" s="52"/>
       <c r="D9" s="51"/>
@@ -4074,8 +4186,24 @@
       <c r="Q9" s="32">
         <v>5640</v>
       </c>
+      <c r="S9" s="101">
+        <f>(N9+N15+N25+N31)/4</f>
+        <v>1545</v>
+      </c>
+      <c r="T9" s="101">
+        <f t="shared" ref="T9:V9" si="0">(O9+O15+O25+O31)/4</f>
+        <v>454</v>
+      </c>
+      <c r="U9" s="101">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="V9" s="101">
+        <f t="shared" si="0"/>
+        <v>8097.5</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53"/>
       <c r="C10" s="52"/>
       <c r="D10" s="51"/>
@@ -4103,7 +4231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:17" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
       <c r="D11" s="47"/>
@@ -4133,7 +4261,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="53"/>
       <c r="C12" s="52"/>
       <c r="D12" s="49"/>
@@ -4161,7 +4289,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="53"/>
       <c r="C13" s="52"/>
       <c r="D13" s="50"/>
@@ -4189,7 +4317,7 @@
         <v>139.69999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
       <c r="C14" s="52"/>
       <c r="D14" s="50"/>
@@ -4217,7 +4345,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="15" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
       <c r="C15" s="52"/>
       <c r="D15" s="51"/>
@@ -4245,7 +4373,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="16" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53"/>
       <c r="C16" s="52"/>
       <c r="D16" s="51"/>
@@ -4275,23 +4403,23 @@
     </row>
     <row r="17" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:17" s="11" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="94"/>
     </row>
     <row r="19" spans="2:17" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:17" s="11" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="58" t="s">
         <v>0</v>
       </c>
@@ -4314,10 +4442,10 @@
         <v>7</v>
       </c>
       <c r="K20" s="42"/>
-      <c r="L20" s="78" t="s">
+      <c r="L20" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="79"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="6" t="s">
         <v>8</v>
       </c>
@@ -4709,21 +4837,21 @@
     </row>
     <row r="33" spans="1:49" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:49" s="11" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="77"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
     </row>
     <row r="35" spans="1:49" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="C36" s="89"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="6" t="s">
         <v>0</v>
       </c>
@@ -4795,10 +4923,10 @@
     </row>
     <row r="37" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="76" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="66">
@@ -4872,8 +5000,8 @@
     </row>
     <row r="38" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="94" t="s">
+      <c r="B38" s="79"/>
+      <c r="C38" s="77" t="s">
         <v>26</v>
       </c>
       <c r="D38" s="57">
@@ -4947,8 +5075,8 @@
     </row>
     <row r="39" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -4987,7 +5115,7 @@
     </row>
     <row r="40" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="C40" s="89"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="58" t="s">
         <v>0</v>
       </c>
@@ -5059,10 +5187,10 @@
     </row>
     <row r="41" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="76" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="59">
@@ -5136,8 +5264,8 @@
     </row>
     <row r="42" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="94" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="77" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="57">
@@ -5480,13 +5608,9 @@
     <row r="311" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="312" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="L27:L32"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F34:M34"/>
+  <mergeCells count="15">
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S7:V7"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="F18:M18"/>
     <mergeCell ref="L4:M4"/>
@@ -5494,9 +5618,15 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L5:L10"/>
     <mergeCell ref="L11:L16"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="L27:L32"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F34:M34"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:J6 N11:Q11">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5508,38 +5638,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:J6">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:J22 N27:Q27">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5550,8 +5648,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:J22">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5573,7 +5669,267 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D22:J22 N27:Q27">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:J22">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5 N5:Q5">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:K11 N11:Q11">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:K11">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:K21 N21:Q21">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:K21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:K27 N27:Q27">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:K27">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:N37">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:N38">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:N41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:N42">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:Q5">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:Q6">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:Q7">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:Q8">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:Q9">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:Q10">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:Q11">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:Q12">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5585,114 +5941,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11 N11:Q11">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:K11">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21 N21:Q21">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:K27 N27:Q27">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:K27">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:Q5">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:Q6">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:Q7">
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="N13:Q13">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5703,8 +5953,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:Q8">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="N14:Q14">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5715,8 +5965,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:Q9">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="N15:Q15">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5727,43 +5977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:Q10">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:Q11">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:Q12">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:Q13">
+  <conditionalFormatting sqref="N16:Q16">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5775,44 +5989,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:Q14">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15:Q15">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:Q16">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N21:Q21">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5824,7 +6002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:Q22">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5836,6 +6014,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:Q23">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:Q24">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:Q25">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:Q26">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -5847,31 +6061,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24:Q24">
+  <conditionalFormatting sqref="N27:Q27">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25:Q25">
+  <conditionalFormatting sqref="N28:Q28">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:Q26">
+  <conditionalFormatting sqref="N29:Q29">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -5883,31 +6097,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:Q27">
+  <conditionalFormatting sqref="N30:Q30">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:Q28">
+  <conditionalFormatting sqref="N31:Q31">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29:Q29">
+  <conditionalFormatting sqref="N32:Q32">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5919,55 +6133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30:Q30">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N31:Q31">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32:Q32">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:N37">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:N38">
+  <conditionalFormatting sqref="S5:V5">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5979,27 +6145,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:N41">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:N42">
+  <conditionalFormatting sqref="S9:V9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
